--- a/data/derived/Fig6 dividing cells.xlsx
+++ b/data/derived/Fig6 dividing cells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maddie/GitHub/KSHV_mathematical_analysis/data/derived/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909511F6-4B10-8446-9AEC-433C4E540184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C68C4-E6E9-F54B-9AE5-D2C93C0BB8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1800" windowWidth="26180" windowHeight="18400" xr2:uid="{D9AFDDD2-5302-4967-8D1F-764C5A819ED0}"/>
+    <workbookView xWindow="7420" yWindow="500" windowWidth="26180" windowHeight="18400" xr2:uid="{D9AFDDD2-5302-4967-8D1F-764C5A819ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Image name</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Cell 22</t>
-  </si>
-  <si>
-    <t>Cell23</t>
   </si>
   <si>
     <t>Cell 23</t>
@@ -736,7 +733,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,22 +753,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1514,7 +1511,7 @@
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12">
